--- a/Front-SIPROE/public/assets/Concentrado_Proyectos_Central.xlsx
+++ b/Front-SIPROE/public/assets/Concentrado_Proyectos_Central.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\SIPROE\Front-SIPROE\public\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyects\SIPROE\Front-SIPROE\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="4185" windowWidth="21600" windowHeight="11295"/>
+    <workbookView xWindow="4368" yWindow="4188" windowWidth="21600" windowHeight="11292"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Hoja1!6:11</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -61,7 +61,7 @@
     <t>NOMBRE DEL PROYECTO</t>
   </si>
   <si>
-    <t>CONSULTA DE PRESUPUESTO PARTICIPATIVO 2025</t>
+    <t>CONSULTA DE PRESUPUESTO PARTICIPATIVO 2026 - 2027</t>
   </si>
 </sst>
 </file>
@@ -585,20 +585,20 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="36.88671875" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1"/>
-    <col min="6" max="6" width="82.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="82.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -614,7 +614,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
@@ -628,7 +628,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:13" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -640,13 +640,13 @@
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G4" s="5"/>
       <c r="I4" s="4"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>9</v>
       </c>
@@ -661,7 +661,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -674,7 +674,7 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
         <v>2</v>
       </c>
@@ -684,14 +684,14 @@
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
     </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="9"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="10"/>
@@ -699,10 +699,10 @@
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>3</v>
       </c>
@@ -746,7 +746,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -758,7 +758,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
